--- a/total.xlsx
+++ b/total.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>곡 명</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Artist</t>
+          <t>아티스트 명</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Source</t>
+          <t>구분</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>사랑하게 될 거야</t>
+          <t>모르시나요(PROD.로코베리)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>한로로</t>
+          <t>조째즈</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -741,12 +741,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>모르시나요(PROD.로코베리)</t>
+          <t>사랑하게 될 거야</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>조째즈</t>
+          <t>한로로</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>힙합보단 사랑, 사랑보단 돈 (Feat. 베이식)</t>
+          <t>Soda Pop</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>노아주다 (noahjooda)</t>
+          <t>KPop Demon Hunters Cast, Danny Chung, Saja Boys, Andrew Choi, Neckwav, Kevin Woo, samUIL Lee</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -781,12 +781,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Soda Pop</t>
+          <t>시작의 아이 ❍</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>KPop Demon Hunters Cast, Danny Chung, Saja Boys, Andrew Choi, Neckwav, Kevin Woo, samUIL Lee</t>
+          <t>박다혜, 마크툽 (MAKTUB)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>시작의 아이 ❍</t>
+          <t>힙합보단 사랑, 사랑보단 돈 (Feat. 베이식)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>박다혜, 마크툽 (MAKTUB)</t>
+          <t>노아주다 (noahjooda)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
+          <t>한번 더 이별</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>이창섭</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -861,12 +861,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IRIS OUT</t>
+          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kenshi Yonezu</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>한번 더 이별</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>너에게 닿기를</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>10CM</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -961,12 +961,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Hollywood Action</t>
+          <t>IRIS OUT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>Kenshi Yonezu</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -981,12 +981,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>너에게 닿기를</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10CM</t>
+          <t>이창섭</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1041,12 +1041,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>Hollywood Action</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>나는 반딧불</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>황가람</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>LOOK AT ME</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1181,12 +1181,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>like JENNIE</t>
+          <t>시작의 아이</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>마크툽 (MAKTUB)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1201,12 +1201,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FOCUS</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hearts2Hearts (하츠투하츠)</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>하얀 그리움</t>
+          <t>오늘만 I LOVE YOU</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>like JENNIE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>시작의 아이</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>마크툽 (MAKTUB)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1281,12 +1281,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>순간을 영원처럼</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1301,12 +1301,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>FOCUS</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ), Bruno Mars</t>
+          <t>Hearts2Hearts (하츠투하츠)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Flower</t>
+          <t>하얀 그리움</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>오반(OVAN)</t>
+          <t>프로미스나인</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1341,12 +1341,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>다영 (DAYOUNG)</t>
+          <t>폴킴</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>APT.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>로제 (ROSÉ), Bruno Mars</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1381,12 +1381,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>순간을 영원처럼</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>Flower</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>오반(OVAN)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1421,12 +1421,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>body</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>다영 (DAYOUNG)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>Never Ending Story</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Lady Gaga, Bruno Mars</t>
+          <t>아이유</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Never Ending Story</t>
+          <t>가만히 눈을 감고</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>아이유</t>
+          <t>DK(디셈버)</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1481,12 +1481,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>Lady Gaga, Bruno Mars</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1521,12 +1521,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NOT CUTE ANYMORE</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>NOT CUTE ANYMORE</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>나였으면</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>나윤권, 도경수(D.O.)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1581,12 +1581,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>가만히 눈을 감고</t>
+          <t>REBEL HEART</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>DK(디셈버)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1601,12 +1601,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>All I Want for Christmas Is You</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mariah Carey</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1621,12 +1621,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0+0</t>
+          <t>All I Want for Christmas Is You</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>한로로</t>
+          <t>Mariah Carey</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1661,12 +1661,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Dirty Work</t>
+          <t>Welcome to the Show</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1681,12 +1681,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>LOOK AT ME</t>
+          <t>Dirty Work</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TOO BAD (feat. Anderson .Paak)</t>
+          <t>청혼하지 않을 이유를 못 찾았어</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>청혼하지 않을 이유를 못 찾았어</t>
+          <t>TOO BAD (feat. Anderson .Paak)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1741,12 +1741,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>STYLE</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Hearts2Hearts (하츠투하츠)</t>
+          <t>경서예지, 전건호</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>WICKED</t>
+          <t>그래 늦지 않았어 (2025)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>아샤트리, 이예은, 전건호</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1781,12 +1781,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>경서예지, 전건호</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>나였으면</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>나윤권, 도경수(D.O.)</t>
+          <t>잔나비</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1821,12 +1821,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>WICKED</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>빌려온 고양이 (Do the Dance)</t>
+          <t>들꽃이 될게요</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -1861,12 +1861,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Zoo (From "Zootopia 2"/Soundtrack Version)</t>
+          <t>BBUU!</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Disney, Shakira</t>
+          <t>PLAVE</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -1881,12 +1881,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>STYLE</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>Hearts2Hearts (하츠투하츠)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BBUU!</t>
+          <t>인사</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>범진</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -1921,12 +1921,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>인사</t>
+          <t>그댈 위한 멜로디</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>범진</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -1941,12 +1941,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>멜로망스</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>빌려온 고양이 (Do the Dance)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>그래 늦지 않았어 (2025)</t>
+          <t>헤어지자 말해요</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>아샤트리, 이예은, 전건호</t>
+          <t>박재정</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2001,12 +2001,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>멜로망스</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Dash</t>
+          <t>0+0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>PLAVE</t>
+          <t>한로로</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2041,12 +2041,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MY LOVE(2025)</t>
+          <t>Magnetic</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>이예은, 아샤트리, 전건호</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2061,12 +2061,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Fame</t>
+          <t>Dash</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>PLAVE</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2081,12 +2081,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>MY LOVE(2025)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>이예은, 아샤트리, 전건호</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2101,12 +2101,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>헤어지자 말해요</t>
+          <t>Fame</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>RIIZE</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>들꽃이 될게요</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2161,12 +2161,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>비가 와서</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2181,12 +2181,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Seven (feat. Latto) - Clean Ver.</t>
+          <t>눈사람</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>정국</t>
+          <t>정승환</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>그댈 위한 멜로디</t>
+          <t>Seven (feat. Latto) - Clean Ver.</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>정국</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2221,12 +2221,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>순순희(지환)</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2241,12 +2241,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>눈사람</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>정승환</t>
+          <t>임재현</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2261,12 +2261,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>눈이 오잖아(Feat.헤이즈)</t>
+          <t>슬픈 초대장</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>순순희(지환)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2281,12 +2281,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>OVERDRIVE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2301,12 +2301,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Your Idol</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>KPop Demon Hunters Cast, Danny Chung, Saja Boys, Andrew Choi, Neckwav, Kevin Woo, samUIL Lee</t>
+          <t>QWER</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2321,12 +2321,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>천국보다 아름다운</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2361,12 +2361,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>OVERDRIVE</t>
+          <t>Zoo (From "Zootopia 2"/Soundtrack Version)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>Disney, Shakira</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2381,12 +2381,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>눈이 오잖아(Feat.헤이즈)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>비가 와서</t>
+          <t>Your Idol</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>KPop Demon Hunters Cast, Danny Chung, Saja Boys, Andrew Choi, Neckwav, Kevin Woo, samUIL Lee</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Santa Tell Me</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Ariana Grande</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2441,12 +2441,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>PO￦ER</t>
+          <t>답장을 보낸지</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2521,12 +2521,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SPAGHETTI (feat. j-hope of BTS)</t>
+          <t>Golden</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>HUNTR/X</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Drowning</t>
+          <t>멸종위기사랑</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>WOODZ</t>
+          <t>이찬혁</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Golden</t>
+          <t>SPAGHETTI (feat. j-hope of BTS)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HUNTR/X</t>
+          <t>LE SSERAFIM (르세라핌)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2601,12 +2601,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>멸종위기사랑</t>
+          <t>타임캡슐</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>이찬혁</t>
+          <t>다비치</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2621,12 +2621,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>뛰어(JUMP)</t>
+          <t>NOT CUTE ANYMORE</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>BLACKPINK</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>타임캡슐</t>
+          <t>Drowning</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>다비치</t>
+          <t>WOODZ</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2661,12 +2661,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NOT CUTE ANYMORE</t>
+          <t>FAMOUS</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2681,12 +2681,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>뛰어(JUMP)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2701,12 +2701,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>FAMOUS</t>
+          <t>toxic till the end</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2741,12 +2741,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>like JENNIE</t>
+          <t>달리 표현할 수 없어요</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>로이킴</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>XOXZ</t>
+          <t>Soda Pop</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>Saja Boys</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -2781,12 +2781,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>YOU AND I</t>
+          <t>하얀 그리움</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>프로미스나인</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -2801,12 +2801,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Soda Pop</t>
+          <t>첫 눈</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Saja Boys</t>
+          <t>EXO</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>첫 눈</t>
+          <t>XOXZ</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>EXO</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -2841,12 +2841,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>달리 표현할 수 없어요</t>
+          <t>사랑하게 될 거야</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>한로로</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>사랑하게 될 거야</t>
+          <t>like JENNIE</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>한로로</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -2881,12 +2881,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>하얀 그리움</t>
+          <t>인사 (Panorama)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -2901,12 +2901,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>body</t>
+          <t>All I Want for Christmas Is You</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>다영 (DAYOUNG)</t>
+          <t>Mariah Carey(머라이어 캐리)</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -2921,12 +2921,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>All I Want for Christmas Is You</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Mariah Carey(머라이어 캐리)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -2941,12 +2941,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>UxYOUxU</t>
+          <t>OVERDRIVE</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>최립우 (CHUEI LI YU)</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -2961,12 +2961,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>너에게 닿기를</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Lady Gaga(레이디 가가)</t>
+          <t>10CM</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -2981,12 +2981,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>너에게 닿기를</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>10CM</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3001,12 +3001,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>모르시나요(PROD.로코베리)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>조째즈</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3021,12 +3021,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>내게 사랑이 뭐냐고 물어본다면</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>로이킴</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3041,12 +3041,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>0+0</t>
+          <t>body</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>한로로</t>
+          <t>다영 (DAYOUNG)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3061,12 +3061,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>모르시나요(PROD.로코베리)</t>
+          <t>Rich Man</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>조째즈</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Hollywood Action</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>로제(ROSÉ)</t>
+          <t>폴킴(Paul Kim)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3121,12 +3121,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>YOU AND I</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3141,12 +3141,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>시작의 아이 ❍</t>
+          <t>0+0</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>박다혜</t>
+          <t>한로로</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3161,12 +3161,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>첫 만남은 계획대로 되지 않아</t>
+          <t>청춘만화</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>WICKED</t>
+          <t>Magnetic</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>REBEL HEART</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3221,12 +3221,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pookie</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>FIFTY FIFTY</t>
+          <t>AKMU(악뮤)</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3241,12 +3241,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>OVERDRIVE</t>
+          <t>시작의 아이 ❍</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>TWS (투어스)</t>
+          <t>박다혜</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3261,12 +3261,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>Lady Gaga(레이디 가가)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3281,12 +3281,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>STYLE</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>Hearts2Hearts (하츠투하츠)</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3321,12 +3321,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>빌려온 고양이 (Do the Dance)</t>
+          <t>Your Idol</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>Saja Boys</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3341,12 +3341,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Rich Man</t>
+          <t>WICKED</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3361,12 +3361,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>빌려온 고양이 (Do the Dance)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>아일릿(ILLIT)</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3381,12 +3381,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Santa Tell Me</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Ariana Grande(아리아나 그란데)</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3401,12 +3401,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>인사 (Panorama)</t>
+          <t>Congratulations</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>number one girl</t>
+          <t>APT.</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3441,12 +3441,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Your Idol</t>
+          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Saja Boys</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3461,12 +3461,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>STYLE</t>
+          <t>Welcome to the Show</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Hearts2Hearts (하츠투하츠)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3481,12 +3481,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>Hollywood Action</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3501,12 +3501,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>HOT</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>LE SSERAFIM (르세라핌)</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Dirty Work</t>
+          <t>Mantra</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3541,12 +3541,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (feat. 태양, 대성)</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>QWER</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3561,12 +3561,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Maybe Tomorrow</t>
+          <t>Santa Tell Me</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>Ariana Grande(아리아나 그란데)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3581,12 +3581,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>나는 반딧불</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>폴킴(Paul Kim)</t>
+          <t>황가람</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3601,12 +3601,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3621,12 +3621,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>WHERE YOU AT</t>
+          <t>오늘만 I LOVE YOU</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3641,12 +3641,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>이창섭</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3661,12 +3661,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Congratulations</t>
+          <t>Dirty Work</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -3681,12 +3681,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Fame</t>
+          <t>Pookie</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>RIIZE</t>
+          <t>FIFTY FIFTY</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>HOT</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -3721,12 +3721,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Flower</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>오반(OVAN)</t>
+          <t>잔나비</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>HANDS UP</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>MEOVV (미야오)</t>
+          <t>너드커넥션(Nerd Connection)</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -3761,12 +3761,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Love me or Leave me</t>
+          <t>How It’s Done</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>HUNTR/X</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>시작의 아이</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>마크툽(MAKTUB)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -3801,12 +3801,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>AKMU(악뮤)</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Love wins all</t>
+          <t>바이, 썸머</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3841,12 +3841,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Magnetic</t>
+          <t>내 이름 맑음</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>아일릿(ILLIT)</t>
+          <t>QWER</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -3861,12 +3861,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>Hype Boy</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -3881,12 +3881,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>바이, 썸머</t>
+          <t>Love me or Leave me</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>아이유(IU)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -3901,12 +3901,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>I AM</t>
+          <t>UxYOUxU</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>최립우 (CHUEI LI YU)</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -3921,12 +3921,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>WE GO UP</t>
+          <t>number one girl</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>BABYMONSTER</t>
+          <t>로제(ROSÉ)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -3941,12 +3941,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>I AM</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -3961,12 +3961,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>시작의 아이</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>마크툽(MAKTUB)</t>
+          <t>멜로망스(MeloMance)</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -3981,12 +3981,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>한번 더 이별</t>
+          <t>WE GO UP</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>BABYMONSTER</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>Attention</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>너드커넥션(Nerd Connection)</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -4021,12 +4021,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>눈물참기</t>
+          <t>나였으면</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>나윤권</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -4041,12 +4041,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>HOT</t>
+          <t>DRIP</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>BABYMONSTER</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -4061,12 +4061,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Never Ending Story</t>
+          <t>눈물참기</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>아이유(IU)</t>
+          <t>QWER</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -4081,12 +4081,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Supernatural</t>
+          <t>Fame</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>RIIZE</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -4101,12 +4101,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ATTITUDE</t>
+          <t>한번 더 이별</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>이창섭</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -4121,7 +4121,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>꿈의 버스</t>
+          <t>INSIDE OUT</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>I DO ME</t>
+          <t>꿈의 버스</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>KiiiKiii (키키)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>DRIP</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>BABYMONSTER</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -4181,12 +4181,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>Cruel Summer</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>Taylor Swift(테일러 스위프트)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -4201,12 +4201,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Cruel Summer</t>
+          <t>I DO ME</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Taylor Swift(테일러 스위프트)</t>
+          <t>KiiiKiii (키키)</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -4221,12 +4221,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Do It</t>
+          <t>Love wins all</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Stray Kids (스트레이 키즈)</t>
+          <t>아이유(IU)</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -4241,12 +4241,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>나는 아픈 건 딱 질색이니까</t>
+          <t>Never Ending Story</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>i-dle (아이들)</t>
+          <t>아이유(IU)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TOO BAD (feat. Anderson .Paak)</t>
+          <t>Maybe Tomorrow</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -4281,12 +4281,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>나는 아픈 건 딱 질색이니까</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>i-dle (아이들)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -4301,12 +4301,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>네모의 꿈</t>
+          <t>Flower</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>아이유(IU)</t>
+          <t>오반(OVAN)</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -4321,12 +4321,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>INSIDE OUT</t>
+          <t>힙합보단 사랑, 사랑보단 돈 (Feat. 베이식)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>노아주다(noahjooda)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -4341,12 +4341,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>TOO BAD (feat. Anderson .Paak)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -4361,12 +4361,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>How It’s Done</t>
+          <t>HANDS UP</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>HUNTR/X</t>
+          <t>MEOVV (미야오)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -4381,7 +4381,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>How Sweet</t>
+          <t>Supernatural</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>ATTITUDE</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Hype Boy</t>
+          <t>Zoo (From "Zootopia 2")</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -4441,12 +4441,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>힙합보단 사랑, 사랑보단 돈 (Feat. 베이식)</t>
+          <t>Snowman</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>노아주다(noahjooda)</t>
+          <t>Sia(시아)</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -4481,12 +4481,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Golden</t>
+          <t>타임캡슐</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>HUNTR/X &amp; EJAE &amp; Audrey Nuna &amp; REI AMI &amp; KPop Demon Hunters Cast</t>
+          <t>다비치</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -4501,12 +4501,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>타임캡슐</t>
+          <t>Golden</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>다비치</t>
+          <t>HUNTR/X &amp; EJAE &amp; Audrey Nuna &amp; REI AMI &amp; KPop Demon Hunters Cast</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -4541,12 +4541,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Blue Valentine</t>
+          <t>Drowning</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>NMIXX</t>
+          <t>WOODZ</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -4561,12 +4561,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Drowning</t>
+          <t>Blue Valentine</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>WOODZ</t>
+          <t>NMIXX</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -4641,12 +4641,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>달리 표현할 수 없어요</t>
+          <t>모르시나요 (Prod. by 로코베리)</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>조째즈</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -4661,12 +4661,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>SPAGHETTI (Feat. j-hope of BTS)</t>
+          <t>달리 표현할 수 없어요</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌) &amp; j-hope</t>
+          <t>로이킴</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>사랑은 늘 도망가</t>
+          <t>시작의 아이</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>마크툽 (Maktub)</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -4721,12 +4721,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>힙합보단 사랑, 사랑보단 돈 (Feat. 베이식)</t>
+          <t>어제보다 슬픈 오늘</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>노아주다 (noahjooda)</t>
+          <t>우디 (Woody)</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>모르시나요 (Prod. by 로코베리)</t>
+          <t>사랑은 늘 도망가</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>조째즈</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -4761,12 +4761,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>시작의 아이</t>
+          <t>SPAGHETTI (Feat. j-hope of BTS)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>마크툽 (Maktub)</t>
+          <t>LE SSERAFIM (르세라핌) &amp; j-hope</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -4781,12 +4781,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>순간을 영원처럼</t>
+          <t>All I Want for Christmas Is You</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>Mariah Carey</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -4801,12 +4801,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>All I Want for Christmas Is You</t>
+          <t>너에게 닿기를</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Mariah Carey</t>
+          <t>10CM</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>다시 만날 수 있을까</t>
+          <t>순간을 영원처럼</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4841,12 +4841,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>내게 사랑이 뭐냐고 물어본다면</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>로이킴</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -4861,12 +4861,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>어제보다 슬픈 오늘</t>
+          <t>다시 만날 수 있을까</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>우디 (Woody)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -4881,12 +4881,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>너에게 닿기를</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>10CM</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -4901,12 +4901,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>내게 사랑이 뭐냐고 물어본다면</t>
+          <t>청춘만화</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>그댈 위한 멜로디</t>
+          <t>돌아보지 마세요</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ULSSIGU</t>
+          <t>그댈 위한 멜로디</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>돌아보지 마세요</t>
+          <t>답장을 보낸지</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>비가 와서</t>
+          <t>들꽃이 될게요</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>답장을 보낸지</t>
+          <t>천국보다 아름다운</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -5021,12 +5021,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>들꽃이 될게요</t>
+          <t>HAPPY</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>우리에게 안녕</t>
+          <t>Wonderful Life</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Wonderful Life</t>
+          <t>비가 와서</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -5081,7 +5081,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>천국보다 아름다운</t>
+          <t>ULSSIGU</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>나는야 HERO</t>
+          <t>우리에게 안녕</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -5121,12 +5121,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Whiplash</t>
+          <t>HOME SWEET HOME (Feat. 태양 &amp; 대성)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -5161,12 +5161,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>첫 눈</t>
+          <t>Whiplash</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>EXO</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -5181,12 +5181,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>청춘만화</t>
+          <t>나는야 HERO</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -5201,12 +5201,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>HAPPY</t>
+          <t>나는 반딧불</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>황가람</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -5221,12 +5221,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>HOME SWEET HOME (Feat. 태양 &amp; 대성)</t>
+          <t>시작의 아이 ❍</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>박다혜 &amp; 마크툽 (Maktub)</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -5241,12 +5241,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>toxic till the end</t>
+          <t>첫 눈</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ)</t>
+          <t>EXO</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -5261,12 +5261,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>시작의 아이 ❍</t>
+          <t>toxic till the end</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>박다혜 &amp; 마크툽 (Maktub)</t>
+          <t>로제 (ROSÉ)</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -5281,12 +5281,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Santa Tell Me</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Ariana Grande</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -5301,12 +5301,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>IRIS OUT</t>
+          <t>천상연</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Kenshi Yonezu</t>
+          <t>이창섭</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -5321,12 +5321,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>힙합보단 사랑, 사랑보단 돈 (Feat. 베이식)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>노아주다 (noahjooda)</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -5341,12 +5341,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>XOXZ</t>
+          <t>like JENNIE</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>제니 (JENNIE)</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -5361,12 +5361,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>LOOK AT ME</t>
+          <t>APT.</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>로제 (ROSÉ) &amp; Bruno Mars</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -5381,12 +5381,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>나는 반딧불</t>
+          <t>Your Idol</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>황가람</t>
+          <t>Saja Boys &amp; Andrew Choi &amp; Neckwav &amp; Danny Chung &amp; Kevin Woo &amp; samUIL Lee &amp; KPop Demon Hunters Cast</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -5401,12 +5401,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>like JENNIE</t>
+          <t>Santa Tell Me</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>제니 (JENNIE)</t>
+          <t>Ariana Grande</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -5421,12 +5421,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -5441,12 +5441,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>사랑하게 될 거야</t>
+          <t>XOXZ</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>한로로</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -5461,12 +5461,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>APT.</t>
+          <t>MY LOVE (2025)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>로제 (ROSÉ) &amp; Bruno Mars</t>
+          <t>이예은 &amp; 아샤트리 &amp; 전건호</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -5481,12 +5481,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Your Idol</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Saja Boys &amp; Andrew Choi &amp; Neckwav &amp; Danny Chung &amp; Kevin Woo &amp; samUIL Lee &amp; KPop Demon Hunters Cast</t>
+          <t>성시경</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -5501,12 +5501,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Welcome to the Show</t>
+          <t>소나기</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>이클립스 (ECLIPSE)</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -5521,12 +5521,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>REBEL HEART</t>
+          <t>Last Christmas</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>Wham!</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -5541,12 +5541,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Die With A Smile</t>
+          <t>Welcome to the Show</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Lady Gaga &amp; Bruno Mars</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -5561,12 +5561,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Last Christmas</t>
+          <t>REBEL HEART</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Wham!</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -5581,12 +5581,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Zoo (From 'Zootopia 2')</t>
+          <t>Die With A Smile</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Disney &amp; Shakira</t>
+          <t>Lady Gaga &amp; Bruno Mars</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -5601,12 +5601,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -5621,12 +5621,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>천상연</t>
+          <t>그래 늦지 않았어 (2025)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>아샤트리 &amp; 이예은 &amp; 전건호</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -5641,12 +5641,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>하얀 그리움</t>
+          <t>에피소드</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>프로미스나인</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -5661,12 +5661,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>잔나비</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -5681,12 +5681,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>MY LOVE (2025)</t>
+          <t>LOOK AT ME</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>이예은 &amp; 아샤트리 &amp; 전건호</t>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -5701,12 +5701,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>소나기</t>
+          <t>Flower</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>이클립스 (ECLIPSE)</t>
+          <t>오반 (OVAN)</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -5721,12 +5721,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>그래 늦지 않았어 (2025)</t>
+          <t>운명 (2025)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>아샤트리 &amp; 이예은 &amp; 전건호</t>
+          <t>먼데이 키즈 &amp; 이이경</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>TOO BAD (Feat. Anderson .Paak)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>G-DRAGON</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -5761,12 +5761,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Rich Man</t>
+          <t>벌써 일년</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>브라운 아이즈</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -5781,12 +5781,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>에피소드</t>
+          <t>비의 랩소디</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>임재현</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -5801,12 +5801,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TOO BAD (Feat. Anderson .Paak)</t>
+          <t>고민중독</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>G-DRAGON</t>
+          <t>QWER</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -5841,12 +5841,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>운명 (2025)</t>
+          <t>IRIS OUT</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>먼데이 키즈 &amp; 이이경</t>
+          <t>Kenshi Yonezu</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -5861,12 +5861,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>고민중독</t>
+          <t>Underneath the Tree</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>Kelly Clarkson</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -5881,12 +5881,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>벌써 일년</t>
+          <t>Rich Man</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>브라운 아이즈</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -5901,12 +5901,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Underneath the Tree</t>
+          <t>슬픈 초대장</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Kelly Clarkson</t>
+          <t>순순희 (지환)</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -5921,12 +5921,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>슬픈 초대장</t>
+          <t>한번 더 이별</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>순순희 (지환)</t>
+          <t>이창섭</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -5941,12 +5941,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>WICKED</t>
+          <t>숲</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>ALLDAY PROJECT</t>
+          <t>최유리</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -5961,12 +5961,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>오늘만 I LOVE YOU</t>
+          <t>사랑하게 될 거야</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>BOYNEXTDOOR</t>
+          <t>한로로</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -5981,12 +5981,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>너드커넥션 (Nerd Connection)</t>
+          <t>폴킴</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -6001,12 +6001,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>NOT CUTE ANYMORE</t>
+          <t>내 이름 맑음</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>아일릿 (ILLIT)</t>
+          <t>QWER</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -6021,12 +6021,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>비의 랩소디</t>
+          <t>How It's Done</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>HUNTR/X &amp; EJAE &amp; Audrey Nuna &amp; REI AMI &amp; KPop Demon Hunters Cast</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -6041,12 +6041,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>가까운 듯 먼 그대여</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>카더가든</t>
+          <t>멜로망스 (MeloMance)</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -6061,12 +6061,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Snowman</t>
+          <t>가까운 듯 먼 그대여</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Sia</t>
+          <t>카더가든</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -6081,12 +6081,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>숲</t>
+          <t>Never Ending Story</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>최유리</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -6101,12 +6101,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Never Ending Story</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>경서예지 &amp; 전건호</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -6121,12 +6121,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>내 이름 맑음</t>
+          <t>WICKED</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>QWER</t>
+          <t>ALLDAY PROJECT</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -6141,12 +6141,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>How It's Done</t>
+          <t>사건의 지평선</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>HUNTR/X &amp; EJAE &amp; Audrey Nuna &amp; REI AMI &amp; KPop Demon Hunters Cast</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -6161,12 +6161,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Dirty Work</t>
+          <t>나는 아픈 건 딱 질색이니까</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>i-dle (아이들)</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -6181,12 +6181,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Supernova</t>
+          <t>오늘만 I LOVE YOU</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>BOYNEXTDOOR</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -6201,12 +6201,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Flower</t>
+          <t>그대만 있다면 (여름날 우리 X 너드커넥션 (Nerd Connection))</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>오반 (OVAN)</t>
+          <t>너드커넥션 (Nerd Connection)</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -6221,12 +6221,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>미리 메리 크리스마스 (Feat. 천둥 of MBLAQ)</t>
+          <t>첫눈처럼 너에게 가겠다</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>에일리 (Ailee)</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -6241,12 +6241,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>Supernova</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>경서예지 &amp; 전건호</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -6261,12 +6261,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>잘 지내자, 우리 (여름날 우리 X 로이킴)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>로이킴</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -6281,12 +6281,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>사건의 지평선</t>
+          <t>하얀 그리움</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>윤하 (YOUNHA)</t>
+          <t>프로미스나인</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -6321,12 +6321,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>희재</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>멜로망스 (MeloMance)</t>
+          <t>성시경</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -6341,12 +6341,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>0＋0</t>
+          <t>심 (心)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>한로로</t>
+          <t>DK (디셈버)</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -6361,12 +6361,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Congratulations</t>
+          <t>첫 만남은 계획대로 되지 않아</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>TWS (투어스)</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -6381,12 +6381,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>한번 더 이별</t>
+          <t>미리 메리 크리스마스 (Feat. 천둥 of MBLAQ)</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>이창섭</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -6401,12 +6401,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>잘 지내자, 우리 (여름날 우리 X 로이킴)</t>
+          <t>Dirty Work</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>로이킴</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
